--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,17 +528,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0375</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abdul Muyeez</t>
+          <t>ab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Moulana</t>
+          <t>cde</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -568,7 +568,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -668,17 +668,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0374</t>
+          <t>0320</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bryan Tetsadong Marceau</t>
+          <t>Charles</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mbeumo</t>
+          <t>Carter</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -688,17 +688,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0320</t>
+          <t>00392</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Charles</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carter</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -708,17 +708,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00392</t>
+          <t>0363</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Mcmillan</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -728,17 +728,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0363</t>
+          <t>0290</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>dhbrukkuzldhbrukkuzl</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mcmillan</t>
+          <t>ibuvlwtfsfibuvlwtfsf</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -748,17 +748,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0376</t>
+          <t>0294</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>David Stepin</t>
+          <t>DHINA KARAN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -768,17 +768,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0381</t>
+          <t>09557</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>David Stepin</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Hamilton</t>
+          <t>Jones</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -788,17 +788,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0290</t>
+          <t>0370</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dhbrukkuzldhbrukkuzl</t>
+          <t>Emma Grace</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ibuvlwtfsfibuvlwtfsf</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -808,17 +808,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0294</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DHINA KARAN</t>
+          <t>FName Mname</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>LName</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -828,17 +828,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>09557</t>
+          <t>ATPValue</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>ftdkux</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>ltsxgy</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -846,103 +846,79 @@
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ATPValue</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>firstName256 middleName916</t>
+          <t>fthnvn</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lastName536</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
+          <t>ltwrrt</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0378</t>
+          <t>ATPValue</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>firstName710 middleName424</t>
+          <t>fthnvn</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>lastName598</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Automaton Tester</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Full-Time Permanent</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>ltwrrt</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0372</t>
+          <t>ATPValue</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>firstName958 middleName727</t>
+          <t>fthyfv</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>lastName531</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Automaton Tester</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Full-Time Permanent</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Engineering</t>
-        </is>
-      </c>
+          <t>ltrhtm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>ATPValue</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FName Mname</t>
+          <t>ftioiu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LName</t>
+          <t>ltpugr</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -957,12 +933,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ftdkux</t>
+          <t>ftioiu</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ltsxgy</t>
+          <t>ltpugr</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -977,12 +953,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>fthnvn</t>
+          <t>ftioiu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ltwrrt</t>
+          <t>ltpugr</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -997,12 +973,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fthnvn</t>
+          <t>ftioiu</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ltwrrt</t>
+          <t>ltpugr</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1017,12 +993,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>fthyfv</t>
+          <t>ftndlm</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ltrhtm</t>
+          <t>ltdyyf</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1037,12 +1013,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>ftpjte</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>ltpzkj</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1057,12 +1033,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>ftyseo</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>ltzbbp</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1077,12 +1053,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>ftyseo</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>ltzbbp</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1097,12 +1073,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>ftyseo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>ltzbbp</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1117,12 +1093,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ftndlm</t>
+          <t>ftyseo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ltdyyf</t>
+          <t>ltzbbp</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1137,12 +1113,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ftpjte</t>
+          <t>ftyseo</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ltpzkj</t>
+          <t>ltzbbp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1172,17 +1148,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0315hh</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1192,17 +1168,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1212,17 +1188,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0365</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1232,17 +1208,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1252,17 +1228,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1272,17 +1248,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0315hh</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>Butler</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1292,7 +1268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0365</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1312,17 +1288,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>03821</t>
+          <t>0367010</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Janesh</t>
+          <t>Jobin Mathew</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Sam</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1332,17 +1308,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0367010</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jobin Mathew</t>
+          <t>joker john</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>selvam</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1352,17 +1328,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0384</t>
+          <t>0361</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Joe</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>Evans</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1372,17 +1348,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0380</t>
+          <t>0322</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Doe</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1392,17 +1368,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0335</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>joker john</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>selvam</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1412,17 +1388,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0385</t>
+          <t>0321</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Joko Cahaya</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1432,17 +1408,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0361</t>
+          <t>0364</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -1452,7 +1428,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0322</t>
+          <t>0342</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1472,7 +1448,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0335</t>
+          <t>0323</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1488,6 +1464,1170 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0323</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Joy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0317</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Joy</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0315</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>JoyToy</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SmithSmith</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>muser</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>manda akhil</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Full-Time Permanent</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0308</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>murugan moorthi</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>thiru</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Nalim</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>R P</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0264</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>njycvonotxnjycvonotx</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>zguczzwxfazguczzwxfa</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Peter Mac</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Full-Time Probation</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Qwerty Qwerty</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>LName</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0366</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Radha</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Gupta</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Das</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>kkt</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Das</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Das</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0247</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Rahul Mulge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Patil</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Das</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0304</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Rahul</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Das</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0277</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ranga</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Akunuri</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ravi M</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0042</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Harmony</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>QA Engineer</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Full-Time Contract</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Quality Assurance</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0261</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>rkbqaoxdhzrkbqaoxdhz</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>lszuvmchnilszuvmchni</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0315b</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Rosanna Ryan</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Pagac</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0371</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>roy kevin</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0034</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Russel</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Full-Time Permanent</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0300</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Sagar hag</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>hgfkag</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0087</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Sania</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Shaheen</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Customer Success Manager</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Full-Time Permanent</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Technical Support</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0103</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Tencrady</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Payroll Administrator</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Full-Time Permanent</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0289</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>savi g</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>0271</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>savi N</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>0270</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>savi g</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0266</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>savi N</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0303029900</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>savina dulvin</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>dulvin</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0293029900</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>savina dulvin</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>dulvin</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0291029900</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>savina dulvin</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>dulvin</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>03671</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sharath V</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Thampi</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>03660447</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Shivaduth S</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Thampi</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>siva kumar</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>selvi</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0319</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>sree hema</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>latha</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0310</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>sww</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0313</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>sww</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>03694567</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Thomas Kutty</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Benny</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Timothy Lewis</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Amiano</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0318</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Tristan</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0279</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>uehwadquzwuehwadquzw</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>hzzdyzwxmwhzzdyzwxmw</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0274</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0285</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0273</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0284</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0281</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0280</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0378</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Uvin</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Kavi</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0249</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Virat</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Kohli</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>09876</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>yedghjb1 ru84</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>90jsnd</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0311</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>yqlluQZYFR</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>yaTQBtZgLf</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0259</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>zlnudvgazrzlnudvgazr</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>smzocpbvswsmzocpbvsw</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,17 +528,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>038372873</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>Allison Hoppe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cde</t>
+          <t>Becker</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>0360</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>aniket Ashok</t>
+          <t>aniket t</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>patil</t>
+          <t>t</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -588,17 +588,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0360</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>aniket t</t>
+          <t>aniket Ashok</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>patil</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -793,12 +793,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Emma Grace</t>
+          <t>Enoch</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Hills</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -808,17 +808,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>8989</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FName Mname</t>
+          <t>FinnTeo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LName</t>
+          <t>Enstain</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -828,17 +828,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ftdkux</t>
+          <t>FName Mname</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ltsxgy</t>
+          <t>LName</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -848,17 +848,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ATPValue</t>
+          <t>0372</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>fthnvn</t>
+          <t>FName1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ltwrrt</t>
+          <t>LName1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -873,12 +873,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>fthnvn</t>
+          <t>ftdkux</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ltwrrt</t>
+          <t>ltsxgy</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -893,12 +893,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fthyfv</t>
+          <t>fthnvn</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ltrhtm</t>
+          <t>ltwrrt</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -913,12 +913,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>fthnvn</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>ltwrrt</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -933,12 +933,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ftioiu</t>
+          <t>fthyfv</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ltpugr</t>
+          <t>ltrhtm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -993,12 +993,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ftndlm</t>
+          <t>ftioiu</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ltdyyf</t>
+          <t>ltpugr</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ftpjte</t>
+          <t>ftioiu</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ltpzkj</t>
+          <t>ltpugr</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1033,12 +1033,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>ftndlm</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>ltdyyf</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ftyseo</t>
+          <t>ftpjte</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ltzbbp</t>
+          <t>ltpzkj</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1148,17 +1148,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0315hh</t>
+          <t>ATPValue</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>ftyseo</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>hh</t>
+          <t>ltzbbp</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1168,17 +1168,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>ATPValue</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>ftyseo</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>ltzbbp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1188,17 +1188,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0365</t>
+          <t>038395312</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Genevive Padberg</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Crona</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1208,17 +1208,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>0315hh</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>hh</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>0365</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1248,17 +1248,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>0385</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jarod</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Bosco</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1268,17 +1268,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>0367010</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Jobin Mathew</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Butler</t>
+          <t>Sam</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1288,17 +1288,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0367010</t>
+          <t>0381</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Jobin Mathew</t>
+          <t>Joelle</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1308,17 +1308,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>15758</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joker john</t>
+          <t>John15758 ABC</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>selvam</t>
+          <t>Doe</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1328,17 +1328,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0361</t>
+          <t>63835</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>John63835 ABC</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>Doe</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1348,17 +1348,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0322</t>
+          <t>97107</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>John97107 ABC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Doe</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1368,17 +1368,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0335</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>joker john</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>selvam</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1388,17 +1388,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0321</t>
+          <t>0361</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Evans</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0364</t>
+          <t>0342</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0342</t>
+          <t>0323</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0323</t>
+          <t>0317</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0323</t>
+          <t>0321</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0317</t>
+          <t>0364</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1508,17 +1508,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0315</t>
+          <t>0342</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JoyToy</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SmithSmith</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -1528,49 +1528,37 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>muser</t>
+          <t>0323</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>manda akhil</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>HR Manager</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Full-Time Permanent</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Human Resources</t>
-        </is>
-      </c>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0308</t>
+          <t>0317</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>murugan moorthi</t>
+          <t>Joy</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>thiru</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -1580,17 +1568,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0301</t>
+          <t>0315</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nalim</t>
+          <t>JoyToy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>R P</t>
+          <t>SmithSmith</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -1600,17 +1588,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0264</t>
+          <t>90814</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>njycvonotxnjycvonotx</t>
+          <t>Long Quang</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>zguczzwxfazguczzwxfa</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -1620,69 +1608,69 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0001</t>
+          <t>muser</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>manda akhil</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Full-Time Permanent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0007</t>
+          <t>0308</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Peter Mac</t>
+          <t>murugan moorthi</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Anderson</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Chief Financial Officer</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Full-Time Probation</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Administration</t>
-        </is>
-      </c>
+          <t>thiru</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>0301</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Qwerty Qwerty</t>
+          <t>Nalim</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LName</t>
+          <t>R P</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -1692,17 +1680,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0366</t>
+          <t>0264</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Radha</t>
+          <t>njycvonotxnjycvonotx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gupta</t>
+          <t>zguczzwxfazguczzwxfa</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -1712,17 +1700,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>0001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -1732,33 +1720,49 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>kkt</t>
+          <t>0007</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>Peter Mac</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Das</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Chief Financial Officer</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Full-Time Probation</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Administration</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>Qwerty Qwerty</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>LName</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -1768,17 +1772,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0247</t>
+          <t>0366</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rahul Mulge</t>
+          <t>Radha</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Patil</t>
+          <t>Gupta</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -1786,15 +1790,19 @@
       <c r="F66" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0375</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Rahul</t>
+          <t>Rahul Kumar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Das</t>
+          <t>Sharma</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -1804,7 +1812,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0304</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1824,17 +1832,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0277</t>
+          <t>0374</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ranga</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Akunuri</t>
+          <t>Sharma</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -1844,17 +1852,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3322</t>
+          <t>kkt</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ravi M</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Das</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -1864,49 +1872,33 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0042</t>
+          <t>0373</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Rahul Kumar</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Harmony</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>QA Engineer</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Full-Time Contract</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Quality Assurance</t>
-        </is>
-      </c>
+          <t>Sharma</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>0261</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>rkbqaoxdhzrkbqaoxdhz</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>lszuvmchnilszuvmchni</t>
+          <t>Das</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -1914,19 +1906,15 @@
       <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>0315b</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rosanna Ryan</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Pagac</t>
+          <t>Das</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -1936,17 +1924,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0371</t>
+          <t>0247</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>roy kevin</t>
+          <t>Rahul Mulge</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>Patil</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -1956,49 +1944,37 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0034</t>
+          <t>0304</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Russel</t>
+          <t>Rahul</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Hamilton</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Full-Time Permanent</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
+          <t>Das</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0300</t>
+          <t>0277</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sagar hag</t>
+          <t>Ranga</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>hgfkag</t>
+          <t>Akunuri</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2008,81 +1984,69 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0087</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sania</t>
+          <t>Ravi M</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Shaheen</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Customer Success Manager</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Full-Time Permanent</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Technical Support</t>
-        </is>
-      </c>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0103</t>
+          <t>0042</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Rebecca</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tencrady</t>
+          <t>Harmony</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Payroll Administrator</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Full-Time Permanent</t>
+          <t>Full-Time Contract</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Quality Assurance</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0289</t>
+          <t>0261</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>savi g</t>
+          <t>rkbqaoxdhzrkbqaoxdhz</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>lszuvmchnilszuvmchni</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -2092,17 +2056,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0271</t>
+          <t>0315b</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>savi N</t>
+          <t>Rosanna Ryan</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>Pagac</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -2112,37 +2076,49 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0270</t>
+          <t>0034</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>savi g</t>
+          <t>Russel</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+          <t>Hamilton</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Full-Time Permanent</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0266</t>
+          <t>0300</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>savi N</t>
+          <t>Sagar hag</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>hgfkag</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -2152,57 +2128,81 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0303029900</t>
+          <t>0087</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>savina dulvin</t>
+          <t>Sania</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>dulvin</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+          <t>Shaheen</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Customer Success Manager</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Full-Time Permanent</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Technical Support</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0293029900</t>
+          <t>0103</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>savina dulvin</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>dulvin</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
+          <t>Tencrady</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Payroll Administrator</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Full-Time Permanent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0291029900</t>
+          <t>0289</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>savina dulvin</t>
+          <t>savi g</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>dulvin</t>
+          <t>n</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -2212,17 +2212,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>03671</t>
+          <t>0271</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Sharath V</t>
+          <t>savi N</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Thampi</t>
+          <t>n</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -2232,17 +2232,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>03660447</t>
+          <t>0270</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Shivaduth S</t>
+          <t>savi g</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Thampi</t>
+          <t>n</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -2252,17 +2252,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0303</t>
+          <t>0266</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>siva kumar</t>
+          <t>savi N</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>selvi</t>
+          <t>g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -2272,17 +2272,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0319</t>
+          <t>0303029900</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>sree hema</t>
+          <t>savina dulvin</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>latha</t>
+          <t>dulvin</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -2292,17 +2292,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0310</t>
+          <t>0293029900</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>sww</t>
+          <t>savina dulvin</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>dulvin</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -2312,17 +2312,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0313</t>
+          <t>0291029900</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>sww</t>
+          <t>savina dulvin</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>dulvin</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -2332,17 +2332,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>03694567</t>
+          <t>03671</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Thomas Kutty</t>
+          <t>Sharath V</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Benny</t>
+          <t>Thampi</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -2352,17 +2352,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0039</t>
+          <t>03660447</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Timothy Lewis</t>
+          <t>Shivaduth S</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Amiano</t>
+          <t>Thampi</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -2372,17 +2372,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0318</t>
+          <t>0303</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tristan</t>
+          <t>siva kumar</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>selvi</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -2392,17 +2392,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0279</t>
+          <t>0319</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>uehwadquzwuehwadquzw</t>
+          <t>sree hema</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>hzzdyzwxmwhzzdyzwxmw</t>
+          <t>latha</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -2412,17 +2412,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0274</t>
+          <t>0310</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Urvi</t>
+          <t>sww</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sri</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -2432,17 +2432,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0285</t>
+          <t>0313</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Urvi</t>
+          <t>sww</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sri</t>
+          <t>test</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -2452,17 +2452,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0273</t>
+          <t>933067</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Urvi</t>
+          <t>Test3</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sri</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -2472,17 +2472,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0284</t>
+          <t>995991</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Urvi</t>
+          <t>Test4</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sri</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -2492,17 +2492,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0281</t>
+          <t>105006</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Urvi</t>
+          <t>Test5</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sri</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -2512,17 +2512,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0280</t>
+          <t>03694567</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Urvi</t>
+          <t>Thomas Kutty</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sri</t>
+          <t>Benny</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -2532,17 +2532,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0378</t>
+          <t>0039</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Uvin</t>
+          <t>Timothy Lewis</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Kavi</t>
+          <t>Amiano</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -2552,17 +2552,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0249</t>
+          <t>0318</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Virat</t>
+          <t>Tristan</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Kohli</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -2572,17 +2572,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>09876</t>
+          <t>0279</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>yedghjb1 ru84</t>
+          <t>uehwadquzwuehwadquzw</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>90jsnd</t>
+          <t>hzzdyzwxmwhzzdyzwxmw</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -2592,17 +2592,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0311</t>
+          <t>0274</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>yqlluQZYFR</t>
+          <t>Urvi</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>yaTQBtZgLf</t>
+          <t>Sri</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -2612,22 +2612,182 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0259</t>
+          <t>0285</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>zlnudvgazrzlnudvgazr</t>
+          <t>Urvi</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>smzocpbvswsmzocpbvsw</t>
+          <t>Sri</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0273</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0284</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0281</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0280</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Urvi</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sri</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0249</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Virat</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Kohli</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>09876</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>yedghjb1 ru84</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>90jsnd</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0311</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>yqlluQZYFR</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>yaTQBtZgLf</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0259</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>zlnudvgazrzlnudvgazr</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>smzocpbvswsmzocpbvsw</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
